--- a/2022/Symphony/MARCH/22.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/22.03.2022/MC Bank Statement March-2022.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="250">
   <si>
     <t>Date</t>
   </si>
@@ -907,6 +907,9 @@
   <si>
     <t>C=Galaxy Mobile Center</t>
   </si>
+  <si>
+    <t>Back Margin Feb'22</t>
+  </si>
 </sst>
 </file>
 
@@ -915,7 +918,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1203,6 +1206,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2249,7 +2258,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3160,6 +3169,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3187,22 +3208,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3293,6 +3302,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6284,67 +6296,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="314"/>
-      <c r="P1" s="314"/>
-      <c r="Q1" s="314"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="319" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="319"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="320" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="317"/>
-      <c r="N3" s="317"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="317"/>
-      <c r="Q3" s="318"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="321"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="322"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6353,52 +6365,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="319" t="s">
+      <c r="A4" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="321" t="s">
+      <c r="B4" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="323" t="s">
+      <c r="C4" s="314" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="323" t="s">
+      <c r="D4" s="314" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="323" t="s">
+      <c r="E4" s="314" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="323" t="s">
+      <c r="F4" s="314" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="323" t="s">
+      <c r="G4" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="323" t="s">
+      <c r="H4" s="314" t="s">
         <v>244</v>
       </c>
-      <c r="I4" s="323" t="s">
+      <c r="I4" s="314" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="323" t="s">
+      <c r="J4" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="323" t="s">
+      <c r="K4" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="323" t="s">
+      <c r="L4" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="323" t="s">
+      <c r="M4" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="323" t="s">
+      <c r="N4" s="314" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="327" t="s">
+      <c r="O4" s="316" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="325" t="s">
+      <c r="P4" s="327" t="s">
         <v>70</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6411,22 +6423,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="320"/>
-      <c r="B5" s="322"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="324"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="326"/>
+      <c r="A5" s="324"/>
+      <c r="B5" s="326"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="315"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="315"/>
+      <c r="N5" s="315"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="328"/>
       <c r="Q5" s="133" t="s">
         <v>45</v>
       </c>
@@ -9582,6 +9594,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9598,9 +9613,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34238,7 +34250,7 @@
   <dimension ref="A1:Y217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34408,8 +34420,12 @@
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="21.75">
-      <c r="A7" s="302"/>
-      <c r="B7" s="280"/>
+      <c r="A7" s="359" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="280">
+        <v>48054</v>
+      </c>
       <c r="C7" s="41"/>
       <c r="D7" s="39" t="s">
         <v>68</v>
@@ -34565,14 +34581,14 @@
       </c>
       <c r="B12" s="294">
         <f>B6+B7-B10-B11</f>
-        <v>131308.82810000007</v>
+        <v>179362.82810000007</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="39" t="s">
         <v>242</v>
       </c>
       <c r="E12" s="256">
-        <v>56686</v>
+        <v>104740</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>52</v>
@@ -34710,8 +34726,8 @@
         <v>5</v>
       </c>
       <c r="B17" s="259">
-        <f>B5+B6-B10+B14+B15+B16</f>
-        <v>8131308.8281000005</v>
+        <f>B5+B6-B10+B14+B15+B16+B7</f>
+        <v>8179362.8281000005</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40" t="s">
@@ -34719,7 +34735,7 @@
       </c>
       <c r="E17" s="257">
         <f>E5+E6+E7+E10+E11+E12+E15</f>
-        <v>8131308.8281000005</v>
+        <v>8179362.8281000005</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="117">
